--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AutomatedTesting\DDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SeleniumExamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Usernames</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>pass3</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -89,8 +92,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -365,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,15 +408,18 @@
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -393,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -401,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>

--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Usernames</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>pass3</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -396,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,18 +405,15 @@
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
